--- a/L2CPE/L2CPE_raw.xlsx
+++ b/L2CPE/L2CPE_raw.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adestefa\Documents\GitHub\SolarCruiserDose\L2CPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46CF1E5B-6F8F-4706-A5BA-ECEC6051DC52}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCD50B9-E1D2-422D-AA70-A3894D58D953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DA6DCCD3-9449-49F8-BBEB-44C3E2ADBD74}"/>
   </bookViews>
@@ -407,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8848DE37-3270-448E-9B5C-45DFB837CD05}">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:U29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="S3" sqref="S3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -418,7 +418,7 @@
     <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -453,7 +453,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <f>SQRT(B2*C2)</f>
         <v>1.3416407864998738E-3</v>
@@ -503,8 +503,24 @@
         <f>B2</f>
         <v>1E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R2" s="2">
+        <f>A2</f>
+        <v>1.3416407864998738E-3</v>
+      </c>
+      <c r="S2" s="2">
+        <f>E2*(11/12)*365*24*3600*(1/(0.984)^2)</f>
+        <v>2353528033.9083877</v>
+      </c>
+      <c r="T2" s="2">
+        <f>C2-B2</f>
+        <v>7.9999999999999993E-4</v>
+      </c>
+      <c r="U2" s="2">
+        <f>B2</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A29" si="0">SQRT(B3*C3)</f>
         <v>2.3999999999999998E-3</v>
@@ -554,8 +570,24 @@
         <f t="shared" ref="P3:P29" si="3">B3</f>
         <v>1.8E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R29" si="4">A3</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="S3" s="2">
+        <f t="shared" ref="S3:S29" si="5">E3*(11/12)*365*24*3600*(1/(0.984)^2)</f>
+        <v>3958871207.6145144</v>
+      </c>
+      <c r="T3" s="2">
+        <f t="shared" ref="T3:T29" si="6">C3-B3</f>
+        <v>1.4000000000000002E-3</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U29" si="7">B3</f>
+        <v>1.8E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>4.2332020977033447E-3</v>
@@ -605,8 +637,24 @@
         <f t="shared" si="3"/>
         <v>3.2000000000000002E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R4" s="2">
+        <f t="shared" si="4"/>
+        <v>4.2332020977033447E-3</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" si="5"/>
+        <v>6541392772.1594296</v>
+      </c>
+      <c r="T4" s="2">
+        <f t="shared" si="6"/>
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="U4" s="2">
+        <f t="shared" si="7"/>
+        <v>3.2000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>7.4833147735478825E-3</v>
@@ -656,8 +704,24 @@
         <f t="shared" si="3"/>
         <v>5.5999999999999999E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R5" s="2">
+        <f t="shared" si="4"/>
+        <v>7.4833147735478825E-3</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" si="5"/>
+        <v>10580874479.476501</v>
+      </c>
+      <c r="T5" s="2">
+        <f t="shared" si="6"/>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="U5" s="2">
+        <f t="shared" si="7"/>
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>1.3341664064126334E-2</v>
@@ -707,8 +771,24 @@
         <f t="shared" si="3"/>
         <v>0.01</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R6" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3341664064126334E-2</v>
+      </c>
+      <c r="S6" s="2">
+        <f t="shared" si="5"/>
+        <v>16575907198.096373</v>
+      </c>
+      <c r="T6" s="2">
+        <f t="shared" si="6"/>
+        <v>7.7999999999999996E-3</v>
+      </c>
+      <c r="U6" s="2">
+        <f t="shared" si="7"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2.3716660810493541E-2</v>
@@ -758,8 +838,24 @@
         <f t="shared" si="3"/>
         <v>1.78E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R7" s="2">
+        <f t="shared" si="4"/>
+        <v>2.3716660810493541E-2</v>
+      </c>
+      <c r="S7" s="2">
+        <f t="shared" si="5"/>
+        <v>25057923111.243305</v>
+      </c>
+      <c r="T7" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3800000000000003E-2</v>
+      </c>
+      <c r="U7" s="2">
+        <f t="shared" si="7"/>
+        <v>1.78E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4.2141665842726252E-2</v>
@@ -809,8 +905,24 @@
         <f t="shared" si="3"/>
         <v>3.1600000000000003E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R8" s="2">
+        <f t="shared" si="4"/>
+        <v>4.2141665842726252E-2</v>
+      </c>
+      <c r="S8" s="2">
+        <f t="shared" si="5"/>
+        <v>36274724866.1511</v>
+      </c>
+      <c r="T8" s="2">
+        <f t="shared" si="6"/>
+        <v>2.4599999999999997E-2</v>
+      </c>
+      <c r="U8" s="2">
+        <f t="shared" si="7"/>
+        <v>3.1600000000000003E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7.4966659255965254E-2</v>
@@ -860,8 +972,24 @@
         <f t="shared" si="3"/>
         <v>5.62E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R9" s="2">
+        <f t="shared" si="4"/>
+        <v>7.4966659255965254E-2</v>
+      </c>
+      <c r="S9" s="2">
+        <f t="shared" si="5"/>
+        <v>49739663890.541336</v>
+      </c>
+      <c r="T9" s="2">
+        <f t="shared" si="6"/>
+        <v>4.3800000000000006E-2</v>
+      </c>
+      <c r="U9" s="2">
+        <f t="shared" si="7"/>
+        <v>5.62E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>0.13334166640626627</v>
@@ -911,8 +1039,24 @@
         <f t="shared" si="3"/>
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R10" s="2">
+        <f t="shared" si="4"/>
+        <v>0.13334166640626627</v>
+      </c>
+      <c r="S10" s="2">
+        <f t="shared" si="5"/>
+        <v>64757101427.721596</v>
+      </c>
+      <c r="T10" s="2">
+        <f t="shared" si="6"/>
+        <v>7.7800000000000008E-2</v>
+      </c>
+      <c r="U10" s="2">
+        <f t="shared" si="7"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>0.23710832967232509</v>
@@ -962,8 +1106,24 @@
         <f t="shared" si="3"/>
         <v>0.17780000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R11" s="2">
+        <f t="shared" si="4"/>
+        <v>0.23710832967232509</v>
+      </c>
+      <c r="S11" s="2">
+        <f t="shared" si="5"/>
+        <v>77774204342.653183</v>
+      </c>
+      <c r="T11" s="2">
+        <f t="shared" si="6"/>
+        <v>0.13839999999999997</v>
+      </c>
+      <c r="U11" s="2">
+        <f t="shared" si="7"/>
+        <v>0.17780000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>0.42166249536803718</v>
@@ -1013,8 +1173,24 @@
         <f t="shared" si="3"/>
         <v>0.31619999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R12" s="2">
+        <f t="shared" si="4"/>
+        <v>0.42166249536803718</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" si="5"/>
+        <v>88134146341.463425</v>
+      </c>
+      <c r="T12" s="2">
+        <f t="shared" si="6"/>
+        <v>0.24610000000000004</v>
+      </c>
+      <c r="U12" s="2">
+        <f t="shared" si="7"/>
+        <v>0.31619999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>0.74986665481270731</v>
@@ -1064,8 +1240,24 @@
         <f t="shared" si="3"/>
         <v>0.56230000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R13" s="2">
+        <f t="shared" si="4"/>
+        <v>0.74986665481270731</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" si="5"/>
+        <v>91686979476.502075</v>
+      </c>
+      <c r="T13" s="2">
+        <f t="shared" si="6"/>
+        <v>0.43769999999999998</v>
+      </c>
+      <c r="U13" s="2">
+        <f t="shared" si="7"/>
+        <v>0.56230000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>1.3335291522872681</v>
@@ -1115,8 +1307,24 @@
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R14" s="2">
+        <f t="shared" si="4"/>
+        <v>1.3335291522872681</v>
+      </c>
+      <c r="S14" s="2">
+        <f t="shared" si="5"/>
+        <v>88850684116.597275</v>
+      </c>
+      <c r="T14" s="2">
+        <f t="shared" si="6"/>
+        <v>0.77829999999999999</v>
+      </c>
+      <c r="U14" s="2">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2.371395810487992</v>
@@ -1166,8 +1374,24 @@
         <f t="shared" si="3"/>
         <v>1.7783</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R15" s="2">
+        <f t="shared" si="4"/>
+        <v>2.371395810487992</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" si="5"/>
+        <v>79684971743.010101</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" si="6"/>
+        <v>1.3840000000000001</v>
+      </c>
+      <c r="U15" s="2">
+        <f t="shared" si="7"/>
+        <v>1.7783</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>4.2169749607983205</v>
@@ -1217,8 +1441,24 @@
         <f t="shared" si="3"/>
         <v>3.1623000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R16" s="2">
+        <f t="shared" si="4"/>
+        <v>4.2169749607983205</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" si="5"/>
+        <v>66339455681.142181</v>
+      </c>
+      <c r="T16" s="2">
+        <f t="shared" si="6"/>
+        <v>2.4611000000000001</v>
+      </c>
+      <c r="U16" s="2">
+        <f t="shared" si="7"/>
+        <v>3.1623000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>7.4989332574706919</v>
@@ -1268,8 +1508,24 @@
         <f t="shared" si="3"/>
         <v>5.6234000000000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R17" s="2">
+        <f t="shared" si="4"/>
+        <v>7.4989332574706919</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" si="5"/>
+        <v>51978844437.834618</v>
+      </c>
+      <c r="T17" s="2">
+        <f t="shared" si="6"/>
+        <v>4.3765999999999998</v>
+      </c>
+      <c r="U17" s="2">
+        <f t="shared" si="7"/>
+        <v>5.6234000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>13.335216533675036</v>
@@ -1319,8 +1575,24 @@
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R18" s="2">
+        <f t="shared" si="4"/>
+        <v>13.335216533675036</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" si="5"/>
+        <v>38872174301.011307</v>
+      </c>
+      <c r="T18" s="2">
+        <f t="shared" si="6"/>
+        <v>7.7828000000000017</v>
+      </c>
+      <c r="U18" s="2">
+        <f t="shared" si="7"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>23.713749763375677</v>
@@ -1370,8 +1642,24 @@
         <f t="shared" si="3"/>
         <v>17.782800000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R19" s="2">
+        <f t="shared" si="4"/>
+        <v>23.713749763375677</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" si="5"/>
+        <v>27198579714.455677</v>
+      </c>
+      <c r="T19" s="2">
+        <f t="shared" si="6"/>
+        <v>13.84</v>
+      </c>
+      <c r="U19" s="2">
+        <f t="shared" si="7"/>
+        <v>17.782800000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>42.16965375100915</v>
@@ -1421,8 +1709,24 @@
         <f t="shared" si="3"/>
         <v>31.622800000000002</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R20" s="2">
+        <f t="shared" si="4"/>
+        <v>42.16965375100915</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" si="5"/>
+        <v>18486674598.453304</v>
+      </c>
+      <c r="T20" s="2">
+        <f t="shared" si="6"/>
+        <v>24.611299999999996</v>
+      </c>
+      <c r="U20" s="2">
+        <f t="shared" si="7"/>
+        <v>31.622800000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>74.989399250827447</v>
@@ -1472,8 +1776,24 @@
         <f t="shared" si="3"/>
         <v>56.234099999999998</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R21" s="2">
+        <f t="shared" si="4"/>
+        <v>74.989399250827447</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" si="5"/>
+        <v>12109488399.762047</v>
+      </c>
+      <c r="T21" s="2">
+        <f t="shared" si="6"/>
+        <v>43.765900000000002</v>
+      </c>
+      <c r="U21" s="2">
+        <f t="shared" si="7"/>
+        <v>56.234099999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>133.35212784204083</v>
@@ -1523,8 +1843,24 @@
         <f t="shared" si="3"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R22" s="2">
+        <f t="shared" si="4"/>
+        <v>133.35212784204083</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" si="5"/>
+        <v>7810261748.9589539</v>
+      </c>
+      <c r="T22" s="2">
+        <f t="shared" si="6"/>
+        <v>77.8279</v>
+      </c>
+      <c r="U22" s="2">
+        <f t="shared" si="7"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>237.13735596826578</v>
@@ -1574,8 +1910,24 @@
         <f t="shared" si="3"/>
         <v>177.8279</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R23" s="2">
+        <f t="shared" si="4"/>
+        <v>237.13735596826578</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" si="5"/>
+        <v>4923211629.9821539</v>
+      </c>
+      <c r="T23" s="2">
+        <f t="shared" si="6"/>
+        <v>138.3999</v>
+      </c>
+      <c r="U23" s="2">
+        <f t="shared" si="7"/>
+        <v>177.8279</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>421.69651664217008</v>
@@ -1625,8 +1977,24 @@
         <f t="shared" si="3"/>
         <v>316.2278</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R24" s="2">
+        <f t="shared" si="4"/>
+        <v>421.69651664217008</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" si="5"/>
+        <v>3042299970.2558002</v>
+      </c>
+      <c r="T24" s="2">
+        <f t="shared" si="6"/>
+        <v>246.11350000000004</v>
+      </c>
+      <c r="U24" s="2">
+        <f t="shared" si="7"/>
+        <v>316.2278</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>749.89419253652045</v>
@@ -1676,8 +2044,24 @@
         <f t="shared" si="3"/>
         <v>562.34130000000005</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R25" s="2">
+        <f t="shared" si="4"/>
+        <v>749.89419253652045</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" si="5"/>
+        <v>1850160246.8768592</v>
+      </c>
+      <c r="T25" s="2">
+        <f t="shared" si="6"/>
+        <v>437.65869999999995</v>
+      </c>
+      <c r="U25" s="2">
+        <f t="shared" si="7"/>
+        <v>562.34130000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>1333.5214283992589</v>
@@ -1727,8 +2111,24 @@
         <f t="shared" si="3"/>
         <v>1000</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R26" s="2">
+        <f t="shared" si="4"/>
+        <v>1333.5214283992589</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" si="5"/>
+        <v>1114216240.3331351</v>
+      </c>
+      <c r="T26" s="2">
+        <f t="shared" si="6"/>
+        <v>778.2793999999999</v>
+      </c>
+      <c r="U26" s="2">
+        <f t="shared" si="7"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>2371.3736764081359</v>
@@ -1778,8 +2178,24 @@
         <f t="shared" si="3"/>
         <v>1778.2793999999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R27" s="2">
+        <f t="shared" si="4"/>
+        <v>2371.3736764081359</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" si="5"/>
+        <v>675038295.65734684</v>
+      </c>
+      <c r="T27" s="2">
+        <f t="shared" si="6"/>
+        <v>1383.9982</v>
+      </c>
+      <c r="U27" s="2">
+        <f t="shared" si="7"/>
+        <v>1778.2793999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>4216.9649372121366</v>
@@ -1829,8 +2245,24 @@
         <f t="shared" si="3"/>
         <v>3162.2775999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="R28" s="2">
+        <f t="shared" si="4"/>
+        <v>4216.9649372121366</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" si="5"/>
+        <v>402156826.29387265</v>
+      </c>
+      <c r="T28" s="2">
+        <f t="shared" si="6"/>
+        <v>2461.1354999999999</v>
+      </c>
+      <c r="U28" s="2">
+        <f t="shared" si="7"/>
+        <v>3162.2775999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>7498.9419920412774</v>
@@ -1878,6 +2310,22 @@
       </c>
       <c r="P29" s="2">
         <f t="shared" si="3"/>
+        <v>5623.4130999999998</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" si="4"/>
+        <v>7498.9419920412774</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" si="5"/>
+        <v>238845925.04461631</v>
+      </c>
+      <c r="T29" s="2">
+        <f t="shared" si="6"/>
+        <v>4376.5869000000002</v>
+      </c>
+      <c r="U29" s="2">
+        <f t="shared" si="7"/>
         <v>5623.4130999999998</v>
       </c>
     </row>

--- a/L2CPE/L2CPE_raw.xlsx
+++ b/L2CPE/L2CPE_raw.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adestefa\Documents\GitHub\SolarCruiserDose\L2CPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FCD50B9-E1D2-422D-AA70-A3894D58D953}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEEA130-04F8-41A7-8286-1A4263746AA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{DA6DCCD3-9449-49F8-BBEB-44C3E2ADBD74}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DA6DCCD3-9449-49F8-BBEB-44C3E2ADBD74}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>E1(keV)</t>
   </si>
@@ -55,11 +55,23 @@
   <si>
     <t>Dev.</t>
   </si>
+  <si>
+    <t>Integral Fluence (#/cm^2)</t>
+  </si>
+  <si>
+    <t>Differential Fluence (#/cm^2/MeV)</t>
+  </si>
+  <si>
+    <t>Energy (MeV)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000E+00"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -89,10 +101,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -108,6 +121,1454 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$X$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Integral Fluence (#/cm^2)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5999999999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9999999999999991E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7799999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1600000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6199999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7780000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1619999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6229999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7783E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1622999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6233999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9999999999999985E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7782800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.16228E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6234099999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17782790000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3162278</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56234130000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7782793999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1622775999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6234130999999987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$X$2:$X$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>877012381023.20044</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>874658852989.29211</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>870699981781.67761</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>864158589009.51819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>853577714530.04175</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>837001807331.94531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>811943884220.70203</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>775669159354.5509</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>725929495464.00952</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>661172394036.28796</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>583398189693.63477</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>495264043352.17133</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>403577063875.66925</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>314726379759.07196</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>235041408016.06189</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>168701952334.91968</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>116723107897.08507</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>77850933596.073761</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50652353881.618088</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32165679283.164783</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20056190883.40274</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12245929134.443785</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7322717504.4616318</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4280417534.2058301</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2430257287.3289709</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1316041046.9958358</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>641002751.33848894</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>238845925.04461631</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C33-4FAB-98F8-5C4A74E398CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Differential Fluence (#/cm^2/MeV)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>9.9999999999999995E-7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1999999999999999E-6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.5999999999999997E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.9999999999999991E-6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7799999999999999E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1600000000000002E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6199999999999997E-5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7780000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1619999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.6229999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7783E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1622999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.6233999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.9999999999999985E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7782800000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.16228E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.6234099999999995E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.17782790000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.3162278</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.56234130000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.7782793999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.1622775999999995</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.6234130999999987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$29</c:f>
+              <c:numCache>
+                <c:formatCode>0.000E+00</c:formatCode>
+                <c:ptCount val="28"/>
+                <c:pt idx="0">
+                  <c:v>4009433642506278</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3026369064782574</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2905976433591667.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2679133605227043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2358310776645012.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2044690264092355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1700188724406347.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1341475325632176.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1006756289323360.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>706048082610394.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>462990114592019</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>281895313619198.38</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>158920682160587.63</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>83103805314701.688</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40257448932840.477</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>18239349229575.801</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7840420190492.7012</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3174460614234.3716</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1229745048125.5598</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>460286795730.08582</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>168231676188.17175</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>60266429099.697327</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>21142107645.806168</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7292389520.257143</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2489636652.5157661</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>856687106.69341588</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>300467120.59097147</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>72840670.187597051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C33-4FAB-98F8-5C4A74E398CD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1178036080"/>
+        <c:axId val="1017590416"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1178036080"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Energy</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (MeV)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1017590416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1017590416"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Int</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> &amp; DIff Fluence</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1178036080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{848E5678-6C81-4343-99CC-682D69E844A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -407,18 +1868,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8848DE37-3270-448E-9B5C-45DFB837CD05}">
-  <dimension ref="A1:U29"/>
+  <dimension ref="A1:AA29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S3" sqref="S3"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="24" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="32.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +1916,17 @@
       <c r="L1" t="s">
         <v>6</v>
       </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>SQRT(B2*C2)</f>
         <v>1.3416407864998738E-3</v>
@@ -519,8 +1992,27 @@
         <f>B2</f>
         <v>1E-3</v>
       </c>
+      <c r="W2" s="3">
+        <f>U2/1000</f>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="X2" s="3">
+        <f>SUM(S2:S29)</f>
+        <v>877012381023.20044</v>
+      </c>
+      <c r="Y2" s="3">
+        <f>Z2+AA2</f>
+        <v>4009433642506278</v>
+      </c>
+      <c r="Z2" s="2">
+        <f>-X2/W2*LOG10(X3/X2)/LOG10(W3/W2)</f>
+        <v>4009433642506278</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A29" si="0">SQRT(B3*C3)</f>
         <v>2.3999999999999998E-3</v>
@@ -586,8 +2078,28 @@
         <f t="shared" ref="U3:U29" si="7">B3</f>
         <v>1.8E-3</v>
       </c>
+      <c r="W3" s="3">
+        <f>W2+T2/1000</f>
+        <v>1.7999999999999999E-6</v>
+      </c>
+      <c r="X3" s="3">
+        <f t="shared" ref="X3:X29" si="8">SUM(S3:S30)</f>
+        <v>874658852989.29211</v>
+      </c>
+      <c r="Y3" s="3">
+        <f>(Z3+AA3)/2</f>
+        <v>3026369064782574</v>
+      </c>
+      <c r="Z3" s="2">
+        <f>-X3/W3*LOG10(X4/X3)/LOG10(W4/W3)</f>
+        <v>3831252558036389</v>
+      </c>
+      <c r="AA3" s="2">
+        <f>-X3/W3*LOG10(X3/X2)/LOG10(W3/W2)</f>
+        <v>2221485571528759.3</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>4.2332020977033447E-3</v>
@@ -653,8 +2165,28 @@
         <f t="shared" si="7"/>
         <v>3.2000000000000002E-3</v>
       </c>
+      <c r="W4" s="3">
+        <f t="shared" ref="W4:W29" si="9">W3+T3/1000</f>
+        <v>3.1999999999999999E-6</v>
+      </c>
+      <c r="X4" s="3">
+        <f t="shared" si="8"/>
+        <v>870699981781.67761</v>
+      </c>
+      <c r="Y4" s="3">
+        <f t="shared" ref="Y4:Y28" si="10">(Z4+AA4)/2</f>
+        <v>2905976433591667.5</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>-X4/W4*LOG10(X5/X4)/LOG10(W5/W4)</f>
+        <v>3666627600527831</v>
+      </c>
+      <c r="AA4" s="2">
+        <f t="shared" ref="AA4:AA29" si="11">-X4/W4*LOG10(X4/X3)/LOG10(W4/W3)</f>
+        <v>2145325266655504</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>7.4833147735478825E-3</v>
@@ -720,8 +2252,28 @@
         <f t="shared" si="7"/>
         <v>5.5999999999999999E-3</v>
       </c>
+      <c r="W5" s="3">
+        <f t="shared" si="9"/>
+        <v>5.5999999999999997E-6</v>
+      </c>
+      <c r="X5" s="3">
+        <f t="shared" si="8"/>
+        <v>864158589009.51819</v>
+      </c>
+      <c r="Y5" s="3">
+        <f t="shared" si="10"/>
+        <v>2679133605227043</v>
+      </c>
+      <c r="Z5" s="2">
+        <f>-X5/W5*LOG10(X6/X5)/LOG10(W6/W5)</f>
+        <v>3278792370838383.5</v>
+      </c>
+      <c r="AA5" s="2">
+        <f t="shared" si="11"/>
+        <v>2079474839615702.5</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>1.3341664064126334E-2</v>
@@ -787,8 +2339,28 @@
         <f t="shared" si="7"/>
         <v>0.01</v>
       </c>
+      <c r="W6" s="3">
+        <f t="shared" si="9"/>
+        <v>9.9999999999999991E-6</v>
+      </c>
+      <c r="X6" s="3">
+        <f t="shared" si="8"/>
+        <v>853577714530.04175</v>
+      </c>
+      <c r="Y6" s="3">
+        <f t="shared" si="10"/>
+        <v>2358310776645012.5</v>
+      </c>
+      <c r="Z6" s="2">
+        <f>-X6/W6*LOG10(X7/X6)/LOG10(W7/W6)</f>
+        <v>2902979572534053.5</v>
+      </c>
+      <c r="AA6" s="2">
+        <f t="shared" si="11"/>
+        <v>1813641980755971.5</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2.3716660810493541E-2</v>
@@ -854,8 +2426,28 @@
         <f t="shared" si="7"/>
         <v>1.78E-2</v>
       </c>
+      <c r="W7" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7799999999999999E-5</v>
+      </c>
+      <c r="X7" s="3">
+        <f t="shared" si="8"/>
+        <v>837001807331.94531</v>
+      </c>
+      <c r="Y7" s="3">
+        <f t="shared" si="10"/>
+        <v>2044690264092355</v>
+      </c>
+      <c r="Z7" s="2">
+        <f>-X7/W7*LOG10(X8/X7)/LOG10(W8/W7)</f>
+        <v>2490163868272744</v>
+      </c>
+      <c r="AA7" s="2">
+        <f t="shared" si="11"/>
+        <v>1599216659911965.8</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4.2141665842726252E-2</v>
@@ -921,8 +2513,28 @@
         <f t="shared" si="7"/>
         <v>3.1600000000000003E-2</v>
       </c>
+      <c r="W8" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1600000000000002E-5</v>
+      </c>
+      <c r="X8" s="3">
+        <f t="shared" si="8"/>
+        <v>811943884220.70203</v>
+      </c>
+      <c r="Y8" s="3">
+        <f t="shared" si="10"/>
+        <v>1700188724406347.8</v>
+      </c>
+      <c r="Z8" s="2">
+        <f>-X8/W8*LOG10(X9/X8)/LOG10(W9/W8)</f>
+        <v>2039683460046202.5</v>
+      </c>
+      <c r="AA8" s="2">
+        <f t="shared" si="11"/>
+        <v>1360693988766493</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7.4966659255965254E-2</v>
@@ -988,8 +2600,28 @@
         <f t="shared" si="7"/>
         <v>5.62E-2</v>
       </c>
+      <c r="W9" s="3">
+        <f t="shared" si="9"/>
+        <v>5.6199999999999997E-5</v>
+      </c>
+      <c r="X9" s="3">
+        <f t="shared" si="8"/>
+        <v>775669159354.5509</v>
+      </c>
+      <c r="Y9" s="3">
+        <f t="shared" si="10"/>
+        <v>1341475325632176.3</v>
+      </c>
+      <c r="Z9" s="2">
+        <f>-X9/W9*LOG10(X10/X9)/LOG10(W10/W9)</f>
+        <v>1587320310367120.3</v>
+      </c>
+      <c r="AA9" s="2">
+        <f t="shared" si="11"/>
+        <v>1095630340897232.1</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>0.13334166640626627</v>
@@ -1055,8 +2687,28 @@
         <f t="shared" si="7"/>
         <v>0.1</v>
       </c>
+      <c r="W10" s="3">
+        <f t="shared" si="9"/>
+        <v>1E-4</v>
+      </c>
+      <c r="X10" s="3">
+        <f t="shared" si="8"/>
+        <v>725929495464.00952</v>
+      </c>
+      <c r="Y10" s="3">
+        <f t="shared" si="10"/>
+        <v>1006756289323360.6</v>
+      </c>
+      <c r="Z10" s="2">
+        <f>-X10/W10*LOG10(X11/X10)/LOG10(W11/W10)</f>
+        <v>1178642671290962.5</v>
+      </c>
+      <c r="AA10" s="2">
+        <f t="shared" si="11"/>
+        <v>834869907355758.75</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>0.23710832967232509</v>
@@ -1122,8 +2774,28 @@
         <f t="shared" si="7"/>
         <v>0.17780000000000001</v>
       </c>
+      <c r="W11" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7780000000000001E-4</v>
+      </c>
+      <c r="X11" s="3">
+        <f t="shared" si="8"/>
+        <v>661172394036.28796</v>
+      </c>
+      <c r="Y11" s="3">
+        <f t="shared" si="10"/>
+        <v>706048082610394.75</v>
+      </c>
+      <c r="Z11" s="2">
+        <f>-X11/W11*LOG10(X12/X11)/LOG10(W12/W11)</f>
+        <v>808327356846225.13</v>
+      </c>
+      <c r="AA11" s="2">
+        <f t="shared" si="11"/>
+        <v>603768808374564.38</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>0.42166249536803718</v>
@@ -1189,8 +2861,28 @@
         <f t="shared" si="7"/>
         <v>0.31619999999999998</v>
       </c>
+      <c r="W12" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1619999999999999E-4</v>
+      </c>
+      <c r="X12" s="3">
+        <f t="shared" si="8"/>
+        <v>583398189693.63477</v>
+      </c>
+      <c r="Y12" s="3">
+        <f t="shared" si="10"/>
+        <v>462990114592019</v>
+      </c>
+      <c r="Z12" s="2">
+        <f>-X12/W12*LOG10(X13/X12)/LOG10(W13/W12)</f>
+        <v>524921906424878.75</v>
+      </c>
+      <c r="AA12" s="2">
+        <f t="shared" si="11"/>
+        <v>401058322759159.31</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>0.74986665481270731</v>
@@ -1256,8 +2948,28 @@
         <f t="shared" si="7"/>
         <v>0.56230000000000002</v>
       </c>
+      <c r="W13" s="3">
+        <f t="shared" si="9"/>
+        <v>5.6229999999999995E-4</v>
+      </c>
+      <c r="X13" s="3">
+        <f t="shared" si="8"/>
+        <v>495264043352.17133</v>
+      </c>
+      <c r="Y13" s="3">
+        <f t="shared" si="10"/>
+        <v>281895313619198.38</v>
+      </c>
+      <c r="Z13" s="2">
+        <f>-X13/W13*LOG10(X14/X13)/LOG10(W14/W13)</f>
+        <v>313202666841146.56</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" si="11"/>
+        <v>250587960397250.19</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>1.3335291522872681</v>
@@ -1323,8 +3035,28 @@
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
+      <c r="W14" s="3">
+        <f t="shared" si="9"/>
+        <v>1E-3</v>
+      </c>
+      <c r="X14" s="3">
+        <f t="shared" si="8"/>
+        <v>403577063875.66925</v>
+      </c>
+      <c r="Y14" s="3">
+        <f t="shared" si="10"/>
+        <v>158920682160587.63</v>
+      </c>
+      <c r="Z14" s="2">
+        <f>-X14/W14*LOG10(X15/X14)/LOG10(W15/W14)</f>
+        <v>174331018062453.81</v>
+      </c>
+      <c r="AA14" s="2">
+        <f t="shared" si="11"/>
+        <v>143510346258721.41</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>2.371395810487992</v>
@@ -1390,8 +3122,28 @@
         <f t="shared" si="7"/>
         <v>1.7783</v>
       </c>
+      <c r="W15" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7783E-3</v>
+      </c>
+      <c r="X15" s="3">
+        <f t="shared" si="8"/>
+        <v>314726379759.07196</v>
+      </c>
+      <c r="Y15" s="3">
+        <f t="shared" si="10"/>
+        <v>83103805314701.688</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>-X15/W15*LOG10(X16/X15)/LOG10(W16/W15)</f>
+        <v>89757818718553.813</v>
+      </c>
+      <c r="AA15" s="2">
+        <f t="shared" si="11"/>
+        <v>76449791910849.547</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>4.2169749607983205</v>
@@ -1457,8 +3209,28 @@
         <f t="shared" si="7"/>
         <v>3.1623000000000001</v>
       </c>
+      <c r="W16" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1622999999999998E-3</v>
+      </c>
+      <c r="X16" s="3">
+        <f t="shared" si="8"/>
+        <v>235041408016.06189</v>
+      </c>
+      <c r="Y16" s="3">
+        <f t="shared" si="10"/>
+        <v>40257448932840.477</v>
+      </c>
+      <c r="Z16" s="2">
+        <f>-X16/W16*LOG10(X17/X16)/LOG10(W17/W16)</f>
+        <v>42819747135889.797</v>
+      </c>
+      <c r="AA16" s="2">
+        <f t="shared" si="11"/>
+        <v>37695150729791.156</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>7.4989332574706919</v>
@@ -1524,8 +3296,28 @@
         <f t="shared" si="7"/>
         <v>5.6234000000000002</v>
       </c>
+      <c r="W17" s="3">
+        <f t="shared" si="9"/>
+        <v>5.6233999999999998E-3</v>
+      </c>
+      <c r="X17" s="3">
+        <f t="shared" si="8"/>
+        <v>168701952334.91968</v>
+      </c>
+      <c r="Y17" s="3">
+        <f t="shared" si="10"/>
+        <v>18239349229575.801</v>
+      </c>
+      <c r="Z17" s="2">
+        <f>-X17/W17*LOG10(X18/X17)/LOG10(W18/W17)</f>
+        <v>19195507903196.84</v>
+      </c>
+      <c r="AA17" s="2">
+        <f t="shared" si="11"/>
+        <v>17283190555954.762</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>13.335216533675036</v>
@@ -1591,8 +3383,28 @@
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
+      <c r="W18" s="3">
+        <f t="shared" si="9"/>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="X18" s="3">
+        <f t="shared" si="8"/>
+        <v>116723107897.08507</v>
+      </c>
+      <c r="Y18" s="3">
+        <f t="shared" si="10"/>
+        <v>7840420190492.7012</v>
+      </c>
+      <c r="Z18" s="2">
+        <f>-X18/W18*LOG10(X19/X18)/LOG10(W19/W18)</f>
+        <v>8212307137077.9424</v>
+      </c>
+      <c r="AA18" s="2">
+        <f t="shared" si="11"/>
+        <v>7468533243907.46</v>
+      </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>23.713749763375677</v>
@@ -1658,8 +3470,28 @@
         <f t="shared" si="7"/>
         <v>17.782800000000002</v>
       </c>
+      <c r="W19" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7782800000000001E-2</v>
+      </c>
+      <c r="X19" s="3">
+        <f t="shared" si="8"/>
+        <v>77850933596.073761</v>
+      </c>
+      <c r="Y19" s="3">
+        <f t="shared" si="10"/>
+        <v>3174460614234.3716</v>
+      </c>
+      <c r="Z19" s="2">
+        <f>-X19/W19*LOG10(X20/X19)/LOG10(W20/W19)</f>
+        <v>3268770128842.6855</v>
+      </c>
+      <c r="AA19" s="2">
+        <f t="shared" si="11"/>
+        <v>3080151099626.0576</v>
+      </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>42.16965375100915</v>
@@ -1725,8 +3557,28 @@
         <f t="shared" si="7"/>
         <v>31.622800000000002</v>
       </c>
+      <c r="W20" s="3">
+        <f t="shared" si="9"/>
+        <v>3.16228E-2</v>
+      </c>
+      <c r="X20" s="3">
+        <f t="shared" si="8"/>
+        <v>50652353881.618088</v>
+      </c>
+      <c r="Y20" s="3">
+        <f t="shared" si="10"/>
+        <v>1229745048125.5598</v>
+      </c>
+      <c r="Z20" s="2">
+        <f>-X20/W20*LOG10(X21/X20)/LOG10(W21/W20)</f>
+        <v>1263520854009.5669</v>
+      </c>
+      <c r="AA20" s="2">
+        <f t="shared" si="11"/>
+        <v>1195969242241.5527</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>74.989399250827447</v>
@@ -1792,8 +3644,28 @@
         <f t="shared" si="7"/>
         <v>56.234099999999998</v>
       </c>
+      <c r="W21" s="3">
+        <f t="shared" si="9"/>
+        <v>5.6234099999999995E-2</v>
+      </c>
+      <c r="X21" s="3">
+        <f t="shared" si="8"/>
+        <v>32165679283.164783</v>
+      </c>
+      <c r="Y21" s="3">
+        <f t="shared" si="10"/>
+        <v>460286795730.08582</v>
+      </c>
+      <c r="Z21" s="2">
+        <f>-X21/W21*LOG10(X22/X21)/LOG10(W22/W21)</f>
+        <v>469366328585.88226</v>
+      </c>
+      <c r="AA21" s="2">
+        <f t="shared" si="11"/>
+        <v>451207262874.28931</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>133.35212784204083</v>
@@ -1859,8 +3731,28 @@
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
+      <c r="W22" s="3">
+        <f t="shared" si="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="X22" s="3">
+        <f t="shared" si="8"/>
+        <v>20056190883.40274</v>
+      </c>
+      <c r="Y22" s="3">
+        <f t="shared" si="10"/>
+        <v>168231676188.17175</v>
+      </c>
+      <c r="Z22" s="2">
+        <f>-X22/W22*LOG10(X23/X22)/LOG10(W23/W22)</f>
+        <v>171887009756.86032</v>
+      </c>
+      <c r="AA22" s="2">
+        <f t="shared" si="11"/>
+        <v>164576342619.48315</v>
+      </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>237.13735596826578</v>
@@ -1926,8 +3818,28 @@
         <f t="shared" si="7"/>
         <v>177.8279</v>
       </c>
+      <c r="W23" s="3">
+        <f t="shared" si="9"/>
+        <v>0.17782790000000001</v>
+      </c>
+      <c r="X23" s="3">
+        <f t="shared" si="8"/>
+        <v>12245929134.443785</v>
+      </c>
+      <c r="Y23" s="3">
+        <f t="shared" si="10"/>
+        <v>60266429099.697327</v>
+      </c>
+      <c r="Z23" s="2">
+        <f>-X23/W23*LOG10(X24/X23)/LOG10(W24/W23)</f>
+        <v>61514592380.912514</v>
+      </c>
+      <c r="AA23" s="2">
+        <f t="shared" si="11"/>
+        <v>59018265818.482132</v>
+      </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>421.69651664217008</v>
@@ -1993,8 +3905,28 @@
         <f t="shared" si="7"/>
         <v>316.2278</v>
       </c>
+      <c r="W24" s="3">
+        <f t="shared" si="9"/>
+        <v>0.3162278</v>
+      </c>
+      <c r="X24" s="3">
+        <f t="shared" si="8"/>
+        <v>7322717504.4616318</v>
+      </c>
+      <c r="Y24" s="3">
+        <f t="shared" si="10"/>
+        <v>21142107645.806168</v>
+      </c>
+      <c r="Z24" s="2">
+        <f>-X24/W24*LOG10(X25/X24)/LOG10(W25/W24)</f>
+        <v>21599071600.735336</v>
+      </c>
+      <c r="AA24" s="2">
+        <f t="shared" si="11"/>
+        <v>20685143690.876999</v>
+      </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>749.89419253652045</v>
@@ -2060,8 +3992,28 @@
         <f t="shared" si="7"/>
         <v>562.34130000000005</v>
       </c>
+      <c r="W25" s="3">
+        <f t="shared" si="9"/>
+        <v>0.56234130000000004</v>
+      </c>
+      <c r="X25" s="3">
+        <f t="shared" si="8"/>
+        <v>4280417534.2058301</v>
+      </c>
+      <c r="Y25" s="3">
+        <f t="shared" si="10"/>
+        <v>7292389520.257143</v>
+      </c>
+      <c r="Z25" s="2">
+        <f>-X25/W25*LOG10(X26/X25)/LOG10(W26/W25)</f>
+        <v>7484931802.6045542</v>
+      </c>
+      <c r="AA25" s="2">
+        <f t="shared" si="11"/>
+        <v>7099847237.9097328</v>
+      </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>1333.5214283992589</v>
@@ -2127,8 +4079,28 @@
         <f t="shared" si="7"/>
         <v>1000</v>
       </c>
+      <c r="W26" s="3">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="X26" s="3">
+        <f t="shared" si="8"/>
+        <v>2430257287.3289709</v>
+      </c>
+      <c r="Y26" s="3">
+        <f t="shared" si="10"/>
+        <v>2489636652.5157661</v>
+      </c>
+      <c r="Z26" s="2">
+        <f>-X26/W26*LOG10(X27/X26)/LOG10(W27/W26)</f>
+        <v>2589515174.2130752</v>
+      </c>
+      <c r="AA26" s="2">
+        <f t="shared" si="11"/>
+        <v>2389758130.8184576</v>
+      </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>2371.3736764081359</v>
@@ -2194,8 +4166,28 @@
         <f t="shared" si="7"/>
         <v>1778.2793999999999</v>
       </c>
+      <c r="W27" s="3">
+        <f t="shared" si="9"/>
+        <v>1.7782793999999997</v>
+      </c>
+      <c r="X27" s="3">
+        <f t="shared" si="8"/>
+        <v>1316041046.9958358</v>
+      </c>
+      <c r="Y27" s="3">
+        <f t="shared" si="10"/>
+        <v>856687106.69341588</v>
+      </c>
+      <c r="Z27" s="2">
+        <f>-X27/W27*LOG10(X28/X27)/LOG10(W28/W27)</f>
+        <v>924812578.99728477</v>
+      </c>
+      <c r="AA27" s="2">
+        <f t="shared" si="11"/>
+        <v>788561634.38954687</v>
+      </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>4216.9649372121366</v>
@@ -2261,8 +4253,28 @@
         <f t="shared" si="7"/>
         <v>3162.2775999999999</v>
       </c>
+      <c r="W28" s="3">
+        <f t="shared" si="9"/>
+        <v>3.1622775999999995</v>
+      </c>
+      <c r="X28" s="3">
+        <f t="shared" si="8"/>
+        <v>641002751.33848894</v>
+      </c>
+      <c r="Y28" s="3">
+        <f t="shared" si="10"/>
+        <v>300467120.59097147</v>
+      </c>
+      <c r="Z28" s="2">
+        <f>-X28/W28*LOG10(X29/X28)/LOG10(W29/W28)</f>
+        <v>347628990.2554906</v>
+      </c>
+      <c r="AA28" s="2">
+        <f t="shared" si="11"/>
+        <v>253305250.92645234</v>
+      </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>7498.9419920412774</v>
@@ -2328,8 +4340,28 @@
         <f t="shared" si="7"/>
         <v>5623.4130999999998</v>
       </c>
+      <c r="W29" s="3">
+        <f t="shared" si="9"/>
+        <v>5.6234130999999987</v>
+      </c>
+      <c r="X29" s="3">
+        <f t="shared" si="8"/>
+        <v>238845925.04461631</v>
+      </c>
+      <c r="Y29" s="3">
+        <f t="shared" ref="Y3:Y29" si="12">Z29+AA29</f>
+        <v>72840670.187597051</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <f t="shared" si="11"/>
+        <v>72840670.187597051</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>